--- a/SourceCode/2024/Feb 2024/Sirisha/Task20/Excel.xlsx
+++ b/SourceCode/2024/Feb 2024/Sirisha/Task20/Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4bd40ed4abe2f4b/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Sirisha/Task20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="2" documentId="13_ncr:1_{3EB11A67-29B9-4C3B-B6E6-C196A07FB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD9F18C-6F5B-4F89-B51C-0B96DB1A4F26}"/>
+  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3EB11A67-29B9-4C3B-B6E6-C196A07FB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CB6035-0832-4F4F-AB30-1DBA7BCB9D63}"/>
   <x:bookViews>
-    <x:workbookView xWindow="948" yWindow="1152" windowWidth="21600" windowHeight="11232" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <x:workbookView xWindow="1284" yWindow="624" windowWidth="21540" windowHeight="11208" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
   <x:sheets>
     <x:sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -26,12 +26,54 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+  <x:si>
+    <x:t>LowerNames</x:t>
+  </x:si>
+  <x:si>
+    <x:t>UpperNames</x:t>
+  </x:si>
   <x:si>
     <x:t>sirisha</x:t>
   </x:si>
   <x:si>
     <x:t>SIRISHA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sowji</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SOWJI</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sandhya</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SANDHYA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>prasanna</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PRASANNA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>anita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>ANITA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>sunita</x:t>
+  </x:si>
+  <x:si>
+    <x:t>SUNITA</x:t>
+  </x:si>
+  <x:si>
+    <x:t>paavani</x:t>
+  </x:si>
+  <x:si>
+    <x:t>PAAVANI</x:t>
   </x:si>
 </x:sst>
 </file>
@@ -93,6 +135,10 @@
     </x:ext>
   </x:extLst>
 </x:styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -361,20 +407,80 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1"/>
+  <x:dimension ref="A1:B8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="B1" sqref="B1"/>
+      <x:selection activeCell="E17" sqref="E17"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <x:cols>
+    <x:col min="1" max="1" width="15.109375" style="0" customWidth="1"/>
+    <x:col min="2" max="2" width="15.886719" style="0" customWidth="1"/>
+  </x:cols>
   <x:sheetData>
-    <x:row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <x:row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <x:c r="A1" s="0" t="s">
         <x:v>0</x:v>
       </x:c>
       <x:c r="B1" s="0" t="s">
         <x:v>1</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A2" s="0" t="s">
+        <x:v>2</x:v>
+      </x:c>
+      <x:c r="B2" s="0" t="s">
+        <x:v>3</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A3" s="0" t="s">
+        <x:v>4</x:v>
+      </x:c>
+      <x:c r="B3" s="0" t="s">
+        <x:v>5</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A4" s="0" t="s">
+        <x:v>6</x:v>
+      </x:c>
+      <x:c r="B4" s="0" t="s">
+        <x:v>7</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A5" s="0" t="s">
+        <x:v>8</x:v>
+      </x:c>
+      <x:c r="B5" s="0" t="s">
+        <x:v>9</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A6" s="0" t="s">
+        <x:v>10</x:v>
+      </x:c>
+      <x:c r="B6" s="0" t="s">
+        <x:v>11</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A7" s="0" t="s">
+        <x:v>12</x:v>
+      </x:c>
+      <x:c r="B7" s="0" t="s">
+        <x:v>13</x:v>
+      </x:c>
+    </x:row>
+    <x:row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <x:c r="A8" s="0" t="s">
+        <x:v>14</x:v>
+      </x:c>
+      <x:c r="B8" s="0" t="s">
+        <x:v>15</x:v>
       </x:c>
     </x:row>
   </x:sheetData>

--- a/SourceCode/2024/Feb 2024/Sirisha/Task20/Excel.xlsx
+++ b/SourceCode/2024/Feb 2024/Sirisha/Task20/Excel.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d4bd40ed4abe2f4b/Documents/GitHub/RPA-Developer-in-30-Days/SourceCode/2024/Feb 2024/Sirisha/Task20/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="19" documentId="13_ncr:1_{3EB11A67-29B9-4C3B-B6E6-C196A07FB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{08CB6035-0832-4F4F-AB30-1DBA7BCB9D63}"/>
+  <xr:revisionPtr revIDLastSave="20" documentId="13_ncr:1_{3EB11A67-29B9-4C3B-B6E6-C196A07FB468}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{8DCE3C96-E49C-48DA-89AC-3AE414FD8403}"/>
   <x:bookViews>
     <x:workbookView xWindow="1284" yWindow="624" windowWidth="21540" windowHeight="11208" firstSheet="0" activeTab="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </x:bookViews>
@@ -410,7 +410,7 @@
   <x:dimension ref="A1:B8"/>
   <x:sheetViews>
     <x:sheetView tabSelected="1" workbookViewId="0">
-      <x:selection activeCell="E17" sqref="E17"/>
+      <x:selection activeCell="E13" sqref="E13"/>
     </x:sheetView>
   </x:sheetViews>
   <x:sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
